--- a/writable/documentation/hcpn soap.xlsx
+++ b/writable/documentation/hcpn soap.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t xml:space="preserve">HCPN</t>
   </si>
@@ -66,73 +66,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">{
-	"fhudFrom": "DOH000000000007520",
-	"fhudto": "DOH000000000005280",
-	"referringContactNumber": "1234567810",
-	"typeOfReferral": "TRANS",
-	"referralCategory": "ER",
-	"referralReason": "SEFTA",
-	"otherReasons": "",
-	"remarks": "",
-	"referralContactPerson": "RECEIVING PERSONNEL",
-	"referralPersonDesignation": "",
-	"rprhreferral": "Y",
-	"rprhreferralmethod": "",
-	"status": "",
-	"referralDate": "12-12-2012",
-	"referralTime": "10:30AM",
-	"familyNumber": "",
-	"phicNumber": "",
-	"caseNumber": "2022-000001",
-	"patientLastName": "REFERRAL",
-	"patientFirstName": "PATIENT",
-	"patientSuffix": "",
-	"patientMiddlename": "TEST",
-	"patientBirthDate": "12-12-2012",
-	"patientSex": "M",
-	"patientCivilStatus": "",
-	"patientReligion": "CATHO",
-	"patientBloodType": "",
-	"patientBloodTypeRH": "",
-	"patientStreetAddress": "#4",
-	"patientBrgyAddress": "043405061",
-	"patientMunAddress": "043405",
-	"patientProvAddress": "0434",
-	"patientRegAddress": "04",
-	"patientZipAddress": "4027",
-	"patientContactNumber": "",
-	"clinicalDiagnosis": "INJURY",
-	"clinicalHistory": "",
-	"vitalSign": {
-		"BP": "",
-		"Temp": "",
-		"HR": "",
-		"RR": "",
-		"O2Sats": "",
-		"Weight": "",
-		"Height": ""
-	},
-	"physicalExamination": "",
-	"chiefComplaint": "CHIEF COMPLAINT",
-	"findings": "INJURY",
-	"ICD": ["S91.0"],
-	"patientProvider": [{
-		"ProviderLast": "DOCTOR LASTNAME",
-		"ProviderFirst": "DOCTOR FIRSTNAME",
-		"ProviderMiddle": "DOCTOR MIDDLENAME",
-		"ProviderSuffix": "",
-		"ProviderContactNo": "12345678910",
-		"ProviderType": "REFER"
-	}, {
-		"ProviderLast": "DOCTOR LASTNAME",
-		"ProviderFirst": "DOCTOR FIRSTNAME",
-		"ProviderMiddle": "DOCTOR MIDDLENAME",
-		"ProviderSuffix": "",
-		"ProviderContactNo": "12345678910",
-		"ProviderType": "CONSU"
-	}]
-}</t>
+    <t xml:space="preserve">{"fhudFrom": "DOH000000000007520","fhudto": "DOH000000000005280","referringContactNumber": "1234567810","typeOfReferral": "TRANS","referralCategory": "ER","referralReason": "SEFTA","otherReasons": "","remarks": "","referralContactPerson": "RECEIVING PERSONNEL","referralPersonDesignation": "","rprhreferral": "Y","rprhreferralmethod": "","status": "","referralDate": "12-12-2012","referralTime": "10:30AM","familyNumber": "","phicNumber": "","caseNumber": "2022-000001","patientLastName": "REFERRAL","patientFirstName": "PATIENT","patientSuffix": "","patientMiddlename": "TEST","patientBirthDate": "12-12-2012","patientSex": "M","patientCivilStatus": "","patientReligion": "CATHO","patientBloodType": "","patientBloodTypeRH": "","patientStreetAddress": "#4","patientBrgyAddress": "043405061","patientMunAddress": "043405","patientProvAddress": "0434","patientRegAddress": "04","patientZipAddress": "4027","patientContactNumber": "","clinicalDiagnosis": "INJURY","clinicalHistory": "","vitalSign": {"BP": "","Temp": "","HR": "","RR": "","O2Sats": "","Weight": "","Height": ""},"physicalExamination": "","chiefComplaint": "CHIEF COMPLAINT","findings": "INJURY","ICD": ["S91.0"],"patientProvider": [{"ProviderLast": "DOCTOR LASTNAME","ProviderFirst": "DOCTOR FIRSTNAME","ProviderMiddle": "DOCTOR MIDDLENAME","ProviderSuffix": "","ProviderContactNo": "12345678910","ProviderType": "REFER"}, {"ProviderLast": "DOCTOR LASTNAME","ProviderFirst": "DOCTOR FIRSTNAME","ProviderMiddle": "DOCTOR MIDDLENAME","ProviderSuffix": "","ProviderContactNo": "12345678910","ProviderType": "CONSU"}]}</t>
   </si>
   <si>
     <t xml:space="preserve">{"LogID":"HOSP-2071322090044",
@@ -180,7 +114,7 @@
     <t xml:space="preserve">{
 "LogID":"HOSP-2071322090xxx",
  "receivedDate":"mm/dd/yyyy H:i:s",
- "receivePerson":"Firstname M. Lastname"
+ "receivedPerson":"Firstname M. Lastname"
 }</t>
   </si>
   <si>
@@ -239,123 +173,7 @@
     <t xml:space="preserve">DOH000000000007520</t>
   </si>
   <si>
-    <t xml:space="preserve">{
-	"data": [{
-		"LogID": "HOSP-2071322020705",
-		"fhudFrom": "DOH000000000007520",
-		"fhudto": "DOH000000000005280",
-		"typeOfReferral": "TRANS",
-		"referralReason": "SEFTA",
-		"otherReasons": "",
-		"remarks": "",
-		"referralContactPerson": "RECEIVING PERSONNEL",
-		"referralPersonDesignation": "",
-		"rprhreferral": null,
-		"rprhreferralmethod": "",
-		"status": "",
-		"referringContactNumber": "1234567810",
-		"referralDate": "12-12-2012",
-		"referralTime": "10:30AM",
-		"referralCategory": "ER",
-		"familyNumber": "",
-		"phicNumber": "",
-		"patientLastName": "REFERRAL",
-		"patientFirstName": "PATIENT",
-		"patientSuffix": "",
-		"patientMiddlename": "TEST",
-		"patientBirthDate": "12-12-2012",
-		"patientSex": "M",
-		"patientCivilStatus": "",
-		"patientReligion": "CATHO",
-		"patientBloodType": "",
-		"patientBlooTypeRH": "",
-		"patientStreetAddress": "#4",
-		"patientBrgyAddress": "043405061",
-		"patientMunAddress": "043405",
-		"patientProvAddress": "0434",
-		"patientRegAddress": "04",
-		"patientZipAddress": "4027",
-		"patientContactNumber": "",
-		"findings": "INJURY",
-		"chiefComplaint": "CHIEF COMPLAINT",
-		"clinicalDiagnosis": "INJURY",
-		"physicalExamination": "",
-		"clinicalHistory": "",
-		"vitalSign": "{\"BP\":\"\",\"Temp\":\"\",\"HR\":\"\",\"RR\":\"\",\"O2Sats\":\"\",\"Weight\":\"\",\"Height\":\"\"}",
-		"patientProvider": [{
-			"ProviderLast": "ACELAJADO",
-			"ProviderFirst": "GODFREY",
-			"ProviderMiddle": "ACERO",
-			"ProviderSuffix": "",
-			"ProviderContactNo": "12345678910",
-			"ProviderType": "REFER"
-		}, {
-			"ProviderLast": "REFERRAL",
-			"ProviderFirst": "DOCTOR",
-			"ProviderMiddle": "TEST",
-			"ProviderSuffix": "",
-			"ProviderContactNo": "12345678910",
-			"ProviderType": "CONSU"
-		}]
-	}, {
-		"LogID": "HOSP-2071322090044",
-		"fhudFrom": "DOH000000000007520",
-		"fhudto": "DOH000000000005280",
-		"typeOfReferral": "TRANS",
-		"referralReason": "SEFTA",
-		"otherReasons": "",
-		"remarks": "",
-		"referralContactPerson": "RECEIVING PERSONNEL",
-		"referralPersonDesignation": "",
-		"rprhreferral": null,
-		"rprhreferralmethod": "",
-		"status": "",
-		"referringContactNumber": "1234567810",
-		"referralDate": "12-12-2012",
-		"referralTime": "10:30AM",
-		"referralCategory": "ER",
-		"familyNumber": "",
-		"phicNumber": "",
-		"patientLastName": "REFERRAL",
-		"patientFirstName": "PATIENT",
-		"patientSuffix": "",
-		"patientMiddlename": "TEST",
-		"patientBirthDate": "12-12-2012",
-		"patientSex": "M",
-		"patientCivilStatus": "",
-		"patientReligion": "CATHO",
-		"patientBloodType": "",
-		"patientBlooTypeRH": "",
-		"patientStreetAddress": "#4",
-		"patientBrgyAddress": "043405061",
-		"patientMunAddress": "043405",
-		"patientProvAddress": "0434",
-		"patientRegAddress": "04",
-		"patientZipAddress": "4027",
-		"patientContactNumber": "",
-		"findings": "INJURY",
-		"chiefComplaint": "CHIEF COMPLAINT",
-		"clinicalDiagnosis": "INJURY",
-		"physicalExamination": "",
-		"clinicalHistory": "",
-		"vitalSign": "{\"BP\":\"\",\"Temp\":\"\",\"HR\":\"\",\"RR\":\"\",\"O2Sats\":\"\",\"Weight\":\"\",\"Height\":\"\"}",
-		"patientProvider": [{
-			"ProviderLast": "REFERRAL",
-			"ProviderFirst": "DOCTOR",
-			"ProviderMiddle": "TEST",
-			"ProviderSuffix": "",
-			"ProviderContactNo": "12345678910",
-			"ProviderType": "CONSU"
-		}, {
-			"ProviderLast": "ACELAJADO",
-			"ProviderFirst": "GODFREY",
-			"ProviderMiddle": "ACERO",
-			"ProviderSuffix": "",
-			"ProviderContactNo": "12345678910",
-			"ProviderType": "REFER"
-		}]
-	}]
-}</t>
+    <t xml:space="preserve">{"data": [{"LogID": "HOSP-2071322020705","fhudFrom": "DOH000000000007520","fhudto": "DOH000000000005280","typeOfReferral": "TRANS","referralReason": "SEFTA","otherReasons": "","remarks": "","referralContactPerson": "RECEIVING PERSONNEL","referralPersonDesignation": "","rprhreferral": null,"rprhreferralmethod": "","status": "","referringContactNumber": "1234567810","referralDate": "12-12-2012","referralTime": "10:30AM","referralCategory": "ER","familyNumber": "","phicNumber": "","patientLastName": "REFERRAL","patientFirstName": "PATIENT","patientSuffix": "","patientMiddlename": "TEST","patientBirthDate": "12-12-2012","patientSex": "M","patientCivilStatus": "","patientReligion": "CATHO","patientBloodType": "","patientBlooTypeRH": "","patientStreetAddress": "#4","patientBrgyAddress": "043405061","patientMunAddress": "043405","patientProvAddress": "0434","patientRegAddress": "04","patientZipAddress": "4027","patientContactNumber": "","findings": "INJURY","chiefComplaint": "CHIEF COMPLAINT","clinicalDiagnosis": "INJURY","physicalExamination": "","clinicalHistory": "","vitalSign": "{\"BP\":\"\",\"Temp\":\"\",\"HR\":\"\",\"RR\":\"\",\"O2Sats\":\"\",\"Weight\":\"\",\"Height\":\"\"}","patientProvider": [{"ProviderLast": "ACELAJADO","ProviderFirst": "GODFREY","ProviderMiddle": "ACERO","ProviderSuffix": "","ProviderContactNo": "12345678910","ProviderType": "REFER"}, {"ProviderLast": "REFERRAL","ProviderFirst": "DOCTOR","ProviderMiddle": "TEST","ProviderSuffix": "","ProviderContactNo": "12345678910","ProviderType": "CONSU"}]}, {"LogID": "HOSP-2071322090044","fhudFrom": "DOH000000000007520","fhudto": "DOH000000000005280","typeOfReferral": "TRANS","referralReason": "SEFTA","otherReasons": "","remarks": "","referralContactPerson": "RECEIVING PERSONNEL","referralPersonDesignation": "","rprhreferral": null,"rprhreferralmethod": "","status": "","referringContactNumber": "1234567810","referralDate": "12-12-2012","referralTime": "10:30AM","referralCategory": "ER","familyNumber": "","phicNumber": "","patientLastName": "REFERRAL","patientFirstName": "PATIENT","patientSuffix": "","patientMiddlename": "TEST","patientBirthDate": "12-12-2012","patientSex": "M","patientCivilStatus": "","patientReligion": "CATHO","patientBloodType": "","patientBlooTypeRH": "","patientStreetAddress": "#4","patientBrgyAddress": "043405061","patientMunAddress": "043405","patientProvAddress": "0434","patientRegAddress": "04","patientZipAddress": "4027","patientContactNumber": "","findings": "INJURY","chiefComplaint": "CHIEF COMPLAINT","clinicalDiagnosis": "INJURY","physicalExamination": "","clinicalHistory": "","vitalSign": "{\"BP\":\"\",\"Temp\":\"\",\"HR\":\"\",\"RR\":\"\",\"O2Sats\":\"\",\"Weight\":\"\",\"Height\":\"\"}","patientProvider": [{"ProviderLast": "REFERRAL","ProviderFirst": "DOCTOR","ProviderMiddle": "TEST","ProviderSuffix": "","ProviderContactNo": "12345678910","ProviderType": "CONSU"}, {"ProviderLast": "ACELAJADO","ProviderFirst": "GODFREY","ProviderMiddle": "ACERO","ProviderSuffix": "","ProviderContactNo": "12345678910","ProviderType": "REFER"}]}]}</t>
   </si>
   <si>
     <t xml:space="preserve">{"code":"403",
@@ -394,63 +212,7 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">{
-	"fhudFrom": "DOH000000000007520",
-	"fhudto": "DOH000000000005280",
-	"typeOfReferral": "TRANS",
-	"referralReason": "SEFTA",
-	"otherReasons": "",
-	"remarks": "",
-	"referralContactPerson": "RECEIVING PERSONNEL",
-	"referralPersonDesignation": "",
-	"rprhreferral": "Y",
-	"rprhreferralmethod": "",
-	"status": "",
-	"referringContactNumber": "1234567810",
-	"referralDate": "12-12-2012",
-	"referralTime": "10:30AM",
-	"referralCategory": "ER",
-	"familyNumber": "",
-	"phicNumber": "",
-	"patientLastName": "REFERRAL",
-	"patientFirstName": "PATIENT",
-	"patientSuffix": "",
-	"patientMiddlename": "TEST",
-	"patientBirthDate": "12-12-2012",
-	"patientSex": "M",
-	"patientCivilStatus": "",
-	"patientReligion": "CATHO",
-	"patientBloodType": "",
-	"patientBlooTypeRH": "",
-	"patientContactNumber": null,
-	"patientStreetAddress": "#4",
-	"patientBrgyAddress": "043405061",
-	"patientMunAddress": "043405",
-	"patientProvAddress": "0434",
-	"patientRegAddress": "04",
-	"patientZipAddress": "4027",
-	"clinicalDiagnosis": "INJURY",
-	"physicalExamination": "",
-	"chiefComplaint": "CHIEF COMPLAINT",
-	"clinicalHistory": "",
-	"findings": "INJURY",
-	"vitalSign": "{\"BP\":\"\",\"Temp\":\"\",\"HR\":\"\",\"RR\":\"\",\"O2Sats\":\"\",\"Weight\":\"\",\"Height\":\"\"}",
-	"patientProvider": [{
-		"ProviderLast": "ACELAJADO",
-		"ProviderFirst": "GODFREY",
-		"ProviderMiddle": "ACERO",
-		"ProviderSuffix": "",
-		"ProviderContactNo": "12345678910",
-		"ProviderType": "REFER"
-	}, {
-		"ProviderLast": "REFERRAL",
-		"ProviderFirst": "DOCTOR",
-		"ProviderMiddle": "TEST",
-		"ProviderSuffix": "",
-		"ProviderContactNo": "12345678910",
-		"ProviderType": "CONSU"
-	}]
-}</t>
+    <t xml:space="preserve">{"fhudFrom": "DOH000000000007520","fhudto": "DOH000000000005280","typeOfReferral": "TRANS","referralReason": "SEFTA","otherReasons": "","remarks": "","referralContactPerson": "RECEIVING PERSONNEL","referralPersonDesignation": "","rprhreferral": "Y","rprhreferralmethod": "","status": "","referringContactNumber": "1234567810","referralDate": "12-12-2012","referralTime": "10:30AM","referralCategory": "ER","familyNumber": "","phicNumber": "","patientLastName": "REFERRAL","patientFirstName": "PATIENT","patientSuffix": "","patientMiddlename": "TEST","patientBirthDate": "12-12-2012","patientSex": "M","patientCivilStatus": "","patientReligion": "CATHO","patientBloodType": "","patientBlooTypeRH": "","patientContactNumber": null,"patientStreetAddress": "#4","patientBrgyAddress": "043405061","patientMunAddress": "043405","patientProvAddress": "0434","patientRegAddress": "04","patientZipAddress": "4027","clinicalDiagnosis": "INJURY","physicalExamination": "","chiefComplaint": "CHIEF COMPLAINT","clinicalHistory": "","findings": "INJURY","vitalSign": "{\"BP\":\"\",\"Temp\":\"\",\"HR\":\"\",\"RR\":\"\",\"O2Sats\":\"\",\"Weight\":\"\",\"Height\":\"\"}","patientProvider": [{"ProviderLast": "ACELAJADO","ProviderFirst": "GODFREY","ProviderMiddle": "ACERO","ProviderSuffix": "","ProviderContactNo": "12345678910","ProviderType": "REFER"}, {"ProviderLast": "REFERRAL","ProviderFirst": "DOCTOR","ProviderMiddle": "TEST","ProviderSuffix": "","ProviderContactNo": "12345678910","ProviderType": "CONSU"}]}</t>
   </si>
   <si>
     <t xml:space="preserve">{"code":"403",
@@ -459,6 +221,36 @@
   </si>
   <si>
     <t xml:space="preserve">Invalid paramater or no record was found.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+ 	"LogID": "HOSP-2071422083643",
+ 	"admDate": "02/02/2022 13:03:13",
+ 	"dischDate": "02/03/2022 13:03:13",
+ 	"disposition": "DISCH",
+ 	"condition": "IMPRO",
+ 	"remarks": "REMARKS",
+ 	"hasFollowUp": "Y",
+ 	"hasMedicine": "Y",
+ 	"drugs": [{
+ 		"LogID": "HOSP-2071422032507",
+ 		"generic": "AMOXICILLIN",
+ 		"instruction": "INUMIN ARAW ARAW",
+ 		"drugcode": "130182083180928321"
+ 	}, {
+ 		"LogID": "HOSP-2071422032507",
+ 		"generic": "TAYODAN",
+ 		"instruction": "INUMIN ARAW ARAW",
+ 		"drugcode": "130182083180928321"
+ 	}],
+ 	"schedule": {
+ 		"LogID": "HOSP-2071422032507",
+ 		"scheduleDateTime": "02/04/2022 13:03:13"
+ 	}
+ }</t>
   </si>
 </sst>
 </file>
@@ -555,7 +347,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -572,28 +364,40 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -613,13 +417,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.1"/>
@@ -668,10 +472,10 @@
       <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -679,49 +483,49 @@
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -732,42 +536,50 @@
       <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="107.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="55.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="124.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/writable/documentation/hcpn soap.xlsx
+++ b/writable/documentation/hcpn soap.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t xml:space="preserve">HCPN</t>
   </si>
@@ -51,6 +51,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Refer
 </t>
@@ -61,6 +62,7 @@
         <sz val="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(This method contains the patient data ,destination  facility and referring facility)</t>
     </r>
@@ -96,6 +98,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">receive
 </t>
@@ -106,6 +109,7 @@
         <sz val="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(This method accept the referred patient from the referral facility)</t>
     </r>
@@ -155,6 +159,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">getReferralFhud
 </t>
@@ -165,6 +170,7 @@
         <sz val="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(This method get all lists of  intransit patients referred to destination facility</t>
     </r>
@@ -192,6 +198,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">getReferralData
 </t>
@@ -201,6 +208,7 @@
         <sz val="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This method get the basic/medical information of referred  patient.</t>
     </r>
@@ -226,11 +234,36 @@
     <t xml:space="preserve">discharge</t>
   </si>
   <si>
-    <t xml:space="preserve"> {
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> {
  	"LogID": "HOSP-2071422083643",
  	"admDate": "02/02/2022 13:03:13",
  	"dischDate": "02/03/2022 13:03:13",
- 	"disposition": "DISCH",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        "diagnosis": "Diagnosis not specified",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 	"disposition": "DISCH",
  	"condition": "IMPRO",
  	"remarks": "REMARKS",
  	"hasFollowUp": "Y",
@@ -251,6 +284,36 @@
  		"scheduleDateTime": "02/04/2022 13:03:13"
  	}
  }</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">getDischargeData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+	"dischargeData": {
+		"LogID": "HOSP-2071422083643",
+		"admDateTime": "01\/01\/2022 13:12:13",
+		"dischDateTime": "01\/01\/2022 13:12:13",
+		"diagnosis": "Diagnosis not specified",
+		"dischDisp": "DISCH",
+		"dischCond": "IMPRO",
+		"hasFollowUp": null,
+		"remarks": "REMARKS"
+	},
+	"drugs": [{
+		"drugcode": "130182083180928321",
+		"generic": "AMOXICILLIN",
+		"instruction": "INUMIN ARAW ARAW"
+	}, {
+		"drugcode": "130182083180928321",
+		"generic": "TAYODAN",
+		"instruction": "INUMIN ARAW ARAW"
+	}],
+	"schedule": {
+		"scheduleDateTime": "1969-12-31 18:00:00"
+	}
+}</t>
   </si>
 </sst>
 </file>
@@ -260,11 +323,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -286,18 +350,27 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -347,7 +420,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -398,6 +471,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -417,13 +494,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.1"/>
@@ -580,6 +657,17 @@
       </c>
       <c r="B14" s="11" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="216.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
